--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.096</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.868</v>
+        <v>15.909</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.273</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.964</v>
+        <v>15.748</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.068</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.106</v>
+        <v>4.63</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.491958185307764</v>
+        <v>12.00190811384736</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.05036310606101</v>
+        <v>9.580475429675115</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.30287861704416</v>
+        <v>18.34375688170587</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.708506387367418</v>
+        <v>3.002198106115689</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.31389964444003</v>
+        <v>9.683435030799608</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.82503770646395</v>
+        <v>11.41415625605346</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.24804628315292</v>
+        <v>7.89077472048109</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.35254948794186</v>
+        <v>25.18682237791548</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.2610514819798</v>
+        <v>24.59973727337284</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.69739142900182</v>
+        <v>8.021500284839817</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>41.18688080662488</v>
+        <v>13.19455869285594</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44.84911197452031</v>
+        <v>14.81789728323424</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.64473214275317</v>
+        <v>14.73432767772555</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.39984791047402</v>
+        <v>2.237082812457885</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.35566314015999</v>
+        <v>12.21032692152702</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.93144563086794</v>
+        <v>12.10721651011473</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.53232073728427</v>
+        <v>19.65415631623896</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.80482718481844</v>
+        <v>26.82298870158613</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.496271563160372</v>
+        <v>5.513065189308726</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.90356252289753</v>
+        <v>8.534226668146154</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.56018083700963</v>
+        <v>13.34659992490907</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15.16656168142907</v>
+        <v>1.295353482083012</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.22359456644788</v>
+        <v>12.99759743659125</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.06170236461997</v>
+        <v>18.04576794213158</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.70755923519547</v>
+        <v>22.25168556084273</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.95341192813027</v>
+        <v>21.38151680739718</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.383597530352985</v>
+        <v>1.858559727227021</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.09885926558327</v>
+        <v>25.46554446202394</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.60288584001041</v>
+        <v>25.86632550371608</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>15.05921398211057</v>
+        <v>5.429063074517192</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.26271677920754</v>
+        <v>38.39467566569867</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.16567803331426</v>
+        <v>32.04969323182285</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.49921793300219</v>
+        <v>35.51091420928468</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43.00212863621803</v>
+        <v>43.66695080813574</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.66452927115121</v>
+        <v>44.71232792673513</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.29713563948151</v>
+        <v>20.84536045139445</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.19413228009861</v>
+        <v>28.0309132093215</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.12950126158881</v>
+        <v>30.92571741731599</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12.49448653064292</v>
+        <v>16.14483939830323</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.18374184874577</v>
+        <v>24.95752248605952</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.4508927987272</v>
+        <v>29.48193844557255</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.161859514732734</v>
+        <v>5.089915666212526</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.67962810384891</v>
+        <v>20.86532162761111</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.3303775279177</v>
+        <v>31.66012755238562</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.12493550886987</v>
+        <v>38.21612252473382</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.2675980830191</v>
+        <v>9.199757838419572</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.92041185344136</v>
+        <v>19.32896012297467</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.16904249876658</v>
+        <v>21.75732096628058</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.627976506152246</v>
+        <v>1.261829481388492</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.35203151137752</v>
+        <v>27.08021471645804</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.86097485658107</v>
+        <v>30.44463948793146</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.31627381301693</v>
+        <v>7.868309742770386</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.52601924309921</v>
+        <v>40.55227543808637</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.43188116125242</v>
+        <v>40.79400443577335</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.74793228027559</v>
+        <v>40.41388589116619</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43.24605622748752</v>
+        <v>45.01153432114292</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.9129105852178</v>
+        <v>49.60469793079251</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.52153753982074</v>
+        <v>11.42905469499133</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.43745368230926</v>
+        <v>22.69519600949098</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.37446988412263</v>
+        <v>27.68141124772676</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.69948851766264</v>
+        <v>11.32606622352726</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.39557317244309</v>
+        <v>23.64842989931045</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.66582318287345</v>
+        <v>30.37946348926622</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.404081578084403</v>
+        <v>3.476771989509025</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.93065530245241</v>
+        <v>19.21472343760404</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.58642126678358</v>
+        <v>34.92584194745665</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17.22305675396625</v>
+        <v>2.577469099713433</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.38612058387773</v>
+        <v>33.01037580795533</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>9.371328791186995</v>
+        <v>3.931703832173081</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24.99795176209175</v>
+        <v>13.38370544672205</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.26192572112029</v>
+        <v>20.57155008823246</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.670720813836409</v>
+        <v>0.4870883044798973</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.3585539630852</v>
+        <v>24.23965296072376</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.88510022954492</v>
+        <v>29.69207687131734</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>14.28953181216737</v>
+        <v>2.102969455072699</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>33.4717229365593</v>
+        <v>35.53553418211207</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.39351058580278</v>
+        <v>39.00591918645057</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34.75648975162571</v>
+        <v>30.58308382641411</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42.25922996854609</v>
+        <v>35.54770736451428</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.93543295437215</v>
+        <v>38.65425873662207</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14.58607497806415</v>
+        <v>6.851266682021052</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.45341681450606</v>
+        <v>13.88608940969986</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.41965682263093</v>
+        <v>27.08818430995011</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>11.80844046921541</v>
+        <v>7.807272067508801</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.4776307102309</v>
+        <v>22.81148002377697</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.76251460686568</v>
+        <v>31.26296185465585</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6.452208420974264</v>
+        <v>4.95882333628634</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>23.94171286424398</v>
+        <v>21.14978816223788</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.61452951786493</v>
+        <v>33.33115263372748</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16.20184733650883</v>
+        <v>0.9734792762183666</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.3365170006029</v>
+        <v>30.50087586902723</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.16825706659372</v>
+        <v>18.91211760813406</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.15483120058035</v>
+        <v>14.85320471890548</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.76058169865376</v>
+        <v>32.66680305787822</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>46.70308507843186</v>
+        <v>34.43585224620804</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>15.90326740459914</v>
+        <v>5.80212556233516</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>37.25626575317089</v>
+        <v>11.52774361423907</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>43.0530310310161</v>
+        <v>17.76648374181582</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>18.33601196402171</v>
+        <v>12.89493595768672</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.67235651266497</v>
+        <v>18.60768281485355</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.38499594340476</v>
+        <v>28.30787461335215</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>13.51963699286235</v>
+        <v>3.034102384867129</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>32.05745110810761</v>
+        <v>6.666380874441419</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.06326308015002</v>
+        <v>10.75386884226529</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24.83399410382444</v>
+        <v>2.113126968612249</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>44.6412709630204</v>
+        <v>16.44026293055823</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>50.08850448398596</v>
+        <v>30.22440954604355</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.24159029042647</v>
+        <v>19.49862294938501</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>54.37040667531556</v>
+        <v>36.8178759984469</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>58.67303362796817</v>
+        <v>41.94484346239605</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>24.98660735609273</v>
+        <v>5.045623645435889</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>47.74213998653398</v>
+        <v>12.64637080204208</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53.81031464896569</v>
+        <v>22.6678104411508</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.06571681344365</v>
+        <v>46.60834367009367</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.94388164459947</v>
+        <v>41.80687767752205</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.56207141972968</v>
+        <v>52.79875066984783</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>48.50533801114685</v>
+        <v>57.17289904660691</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.54647943867924</v>
+        <v>18.66607519034389</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>39.04314919957865</v>
+        <v>49.70338395398757</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>44.82110256814708</v>
+        <v>51.4876018986772</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>19.97358104944586</v>
+        <v>25.88976936194776</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.39758429402908</v>
+        <v>35.45049670057296</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.10539464992802</v>
+        <v>41.17496740345413</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15.26467177965136</v>
+        <v>9.027389179854453</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.9122683419294</v>
+        <v>32.83834155356739</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.91304631182371</v>
+        <v>39.30768577511323</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.72336220647602</v>
+        <v>9.684096409032371</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>46.63027184492908</v>
+        <v>55.40565394379547</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>52.07347601603787</v>
+        <v>62.91112090836062</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>48.11873792346495</v>
+        <v>69.21220177996777</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>56.25908841465887</v>
+        <v>75.47901735963708</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>60.56367275638679</v>
+        <v>80.13700252360238</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.71598306793025</v>
+        <v>32.86572102543442</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>49.612970236546</v>
+        <v>67.55484834341016</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>55.66388739893045</v>
+        <v>71.79488989570943</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>41.33024221943234</v>
+        <v>53.2189073667606</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.18862557107376</v>
+        <v>35.17899884243807</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.80197045830382</v>
+        <v>41.52694803902993</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>48.74970447323741</v>
+        <v>56.35053908373315</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.76888990353199</v>
+        <v>13.61860922943444</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>39.28407224238883</v>
+        <v>45.51562030321013</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>45.06404262750453</v>
+        <v>51.55100135007278</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.19520827092102</v>
+        <v>17.61177315248622</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.62572358277816</v>
+        <v>32.48646418432937</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>41.33645926963637</v>
+        <v>41.44394056477914</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>15.52400969890352</v>
+        <v>6.665739274204064</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.17975449907465</v>
+        <v>32.2589761949704</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.18561028881998</v>
+        <v>43.22986551466051</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.99661672041572</v>
+        <v>6.838732557712333</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>46.90952773616456</v>
+        <v>52.43349247111937</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>52.35565231966566</v>
+        <v>68.78852433855479</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>48.38138723091861</v>
+        <v>65.09155427508614</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>56.51650272324013</v>
+        <v>69.56635791305533</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>60.82521838010779</v>
+        <v>81.61370408115229</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.95594164347623</v>
+        <v>23.07429460555016</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>49.87051808347962</v>
+        <v>60.29198278531423</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>55.9237591029872</v>
+        <v>70.29602369405262</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>40.29568930477738</v>
+        <v>48.30624814111388</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.20321313743946</v>
+        <v>23.15580487958417</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43.82201669402626</v>
+        <v>30.11186661763938</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>47.77926910366212</v>
+        <v>40.64526719931382</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>16.8397337496865</v>
+        <v>9.862887791331055</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>38.30610488524685</v>
+        <v>39.57804076629103</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>44.11386537709706</v>
+        <v>46.90488940199578</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19.28035768923514</v>
+        <v>13.65573726020173</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>35.68591960555985</v>
+        <v>33.11279953484677</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.41184699557122</v>
+        <v>45.46911534261686</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>14.54586109258346</v>
+        <v>7.843279714430992</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.16714990059446</v>
+        <v>32.88246483221678</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>38.19036328033513</v>
+        <v>45.03276722063949</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.94744692211802</v>
+        <v>4.288422658694515</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>45.83366102454189</v>
+        <v>47.1721283099583</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.29587681036728</v>
+        <v>67.08832730610501</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>47.37000824904131</v>
+        <v>52.28475616798207</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>55.51199600381221</v>
+        <v>61.32432477286764</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>59.83025000843578</v>
+        <v>79.45825689324559</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.99739554493234</v>
+        <v>15.17896818410347</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>48.86682488480405</v>
+        <v>54.61274456848233</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>54.94786606755083</v>
+        <v>70.80436932771508</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>46.54756059745901</v>
+        <v>10.13293615327508</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>60.71111172394544</v>
+        <v>19.12969477541992</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>64.21508529475477</v>
+        <v>30.12722490392159</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.99926870513259</v>
+        <v>4.980869466932806</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>60.03079194239898</v>
+        <v>25.0975333955705</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>63.69383644039814</v>
+        <v>27.68727845893708</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>54.7080475712396</v>
+        <v>8.823303641948318</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>71.99095803482901</v>
+        <v>46.74366391801682</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>76.04136849261009</v>
+        <v>48.64037929726912</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>68.67282156227925</v>
+        <v>22.21856766245451</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>75.29290566369373</v>
+        <v>30.15156833255321</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>78.16877203023274</v>
+        <v>31.93841743918992</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>49.23484690659375</v>
+        <v>18.99450625512011</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>68.15140362245469</v>
+        <v>13.11499624152673</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>73.16721089794018</v>
+        <v>30.99710558839443</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>46.95433698776468</v>
+        <v>12.07052656090723</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>61.08891272367075</v>
+        <v>28.34955777878542</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>64.58662532665144</v>
+        <v>29.81011444674773</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>43.7625132210323</v>
+        <v>4.265235938565489</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>59.54704378375784</v>
+        <v>19.0827944019559</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>63.31088475261516</v>
+        <v>19.10031197725276</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>54.47550754700125</v>
+        <v>3.97769919439013</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>71.64515559368259</v>
+        <v>31.2186352570587</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>47.95366811980161</v>
+        <v>19.59826934684382</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>62.19439233434095</v>
+        <v>34.48934274430837</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>65.6915446639421</v>
+        <v>35.99415509223893</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>45.49871522221247</v>
+        <v>6.981125715326986</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>61.62721848282515</v>
+        <v>42.49749719235714</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>65.28286900620049</v>
+        <v>42.0818232972171</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>56.32697361337792</v>
+        <v>9.970988978624774</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>73.69700933476994</v>
+        <v>61.9756392863261</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>77.74140100614565</v>
+        <v>56.23572570482374</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>70.27883063289596</v>
+        <v>51.44530316599619</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>76.91084171972852</v>
+        <v>59.98178278314546</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>79.78637939983894</v>
+        <v>59.36772113158523</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>50.70747540660246</v>
+        <v>24.0006715534996</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>69.74956290297115</v>
+        <v>37.60045199525345</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>74.74679938242916</v>
+        <v>42.83183511512676</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>48.35332188981629</v>
+        <v>22.21670600606757</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>62.56569672857723</v>
+        <v>38.98179428385903</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>66.05772674451255</v>
+        <v>36.98178983784702</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>45.25216225816715</v>
+        <v>6.936007813889422</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>61.1340133811139</v>
+        <v>34.09629655467737</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>64.89152684582139</v>
+        <v>35.46733094112459</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>56.08445542015887</v>
+        <v>8.605921738568959</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>73.3418137679826</v>
+        <v>56.18164152062852</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>48.11062242923218</v>
+        <v>6.004268001340794</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>62.35715721891537</v>
+        <v>24.52785857210053</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>65.85639508979064</v>
+        <v>28.74294128515671</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>45.68830141609792</v>
+        <v>2.458364617751243</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>61.82423079380514</v>
+        <v>38.0447371524994</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>65.48376671929796</v>
+        <v>40.18328077840891</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>56.52608257989991</v>
+        <v>7.037405592897109</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>73.90125064836286</v>
+        <v>56.69214037075014</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>77.94778931360317</v>
+        <v>55.95013112914354</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>70.47299619415269</v>
+        <v>55.58774263051586</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>77.10102599805845</v>
+        <v>61.34427366989961</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>79.98019325467972</v>
+        <v>61.55446185290734</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>50.88115172563706</v>
+        <v>8.391372105133907</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>69.93950303400206</v>
+        <v>24.89720481960943</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>74.93752820100282</v>
+        <v>31.18916651230673</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>48.51049371324153</v>
+        <v>15.69387110529522</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>62.72858919991751</v>
+        <v>33.79495572798704</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>66.22300271284361</v>
+        <v>34.52464597585947</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>45.44091272728194</v>
+        <v>4.77925121527792</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>61.33023235395842</v>
+        <v>30.05408606965452</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>65.09173408955377</v>
+        <v>35.87676307666194</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>56.28292112947141</v>
+        <v>7.090187282171321</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>73.54534546270017</v>
+        <v>48.27037889218465</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>47.37244657291178</v>
+        <v>3.669547447182975</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>61.59647452909126</v>
+        <v>21.87170161841057</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>65.10923369732542</v>
+        <v>30.5491019188813</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>44.89840560029223</v>
+        <v>5.125782621508986</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>61.00302754172598</v>
+        <v>37.89241182109741</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>64.67807543639859</v>
+        <v>43.63530798794123</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>55.67899316031966</v>
+        <v>6.375947679419312</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>73.03056009772024</v>
+        <v>55.83371104080461</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>77.09118843835812</v>
+        <v>58.52868926334506</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>69.6535941287563</v>
+        <v>51.96025646499098</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>76.28565146941438</v>
+        <v>59.011437366534</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>79.17263965104115</v>
+        <v>59.10964937570101</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>50.10932866596443</v>
+        <v>8.184557722208638</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>69.12557093782019</v>
+        <v>22.0937356179862</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>74.14895867162993</v>
+        <v>37.26370144359486</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>47.77464485644619</v>
+        <v>10.54735237146324</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>61.9696213265815</v>
+        <v>30.97667307181339</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>65.47691624208056</v>
+        <v>33.75556490083088</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>44.65350269507099</v>
+        <v>4.935703762203765</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>60.51076575852317</v>
+        <v>29.33811995157059</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>64.28727923414172</v>
+        <v>34.88872922467762</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>55.43826008933414</v>
+        <v>4.820882490740448</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>72.67634955977763</v>
+        <v>43.74486040867508</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>75.70154510262374</v>
+        <v>32.10910332342817</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>68.16429424981645</v>
+        <v>26.55133754886279</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>74.85093755229575</v>
+        <v>42.11684110014281</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>77.96177213345274</v>
+        <v>42.89572232597737</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>49.55303247035966</v>
+        <v>16.80927564175373</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>68.87469839741796</v>
+        <v>27.193964792922</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>73.73586456434299</v>
+        <v>33.99891080872002</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>51.52168645007045</v>
+        <v>14.40337283436669</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>66.28823593704874</v>
+        <v>26.45835833015605</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>70.15088368523664</v>
+        <v>35.37706886683753</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>48.79387740166222</v>
+        <v>4.424427477521753</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>65.56498203057487</v>
+        <v>18.66078169345015</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>69.60568860646229</v>
+        <v>22.6930143763965</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>60.78735381718113</v>
+        <v>7.061847312778234</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>78.58972615846164</v>
+        <v>35.43592070226185</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>83.07283206008729</v>
+        <v>52.06541375274182</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>75.79427911217978</v>
+        <v>32.28303867537777</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>82.9425772140526</v>
+        <v>48.87742707009545</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>86.32450090379446</v>
+        <v>53.53101678451953</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>55.54893908858016</v>
+        <v>16.30620855380193</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>76.11013073990824</v>
+        <v>32.29967761588598</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>81.17258065454608</v>
+        <v>44.63988995504992</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>77.39362703736982</v>
+        <v>56.51169930661163</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>69.75771450790485</v>
+        <v>53.39589746865733</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>76.45541034683174</v>
+        <v>62.24777590956447</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>79.56644973697259</v>
+        <v>62.76311681031722</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>51.01653550350721</v>
+        <v>26.47878238204211</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>70.46496515311154</v>
+        <v>58.53148124773079</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>75.30892569496255</v>
+        <v>56.66762261416218</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>52.97818750978815</v>
+        <v>24.55502138012003</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>50.34542160676351</v>
+        <v>7.615836121380863</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>67.21330826727367</v>
+        <v>40.95080793168695</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>71.24833220347365</v>
+        <v>42.09669152469782</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>62.46478785042014</v>
+        <v>10.18331466034395</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>80.35471408672763</v>
+        <v>65.58541508516338</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>84.83301382882529</v>
+        <v>71.24277893852312</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>77.45684063903721</v>
+        <v>69.35346408094409</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>84.61528492447852</v>
+        <v>76.81210029874265</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>87.9983099803045</v>
+        <v>79.66831992939737</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>57.08004274237344</v>
+        <v>31.71709673022098</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>77.76619191894456</v>
+        <v>72.22446465092536</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>82.81292817444269</v>
+        <v>73.19639232454576</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>77.59970533299517</v>
+        <v>58.88614288581844</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>69.94946739184658</v>
+        <v>50.58057222478543</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>76.64313329919895</v>
+        <v>55.63195783151285</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>79.75782630809152</v>
+        <v>62.43757829521017</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>51.18949406544326</v>
+        <v>19.76547422775959</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>70.65385212526031</v>
+        <v>53.32518169409811</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>75.49896275558443</v>
+        <v>53.91475592619673</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>53.15005091425055</v>
+        <v>15.75448923019687</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>67.99927641585957</v>
+        <v>34.73949541643992</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>71.85882196240841</v>
+        <v>39.93949737859339</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>50.54932766245175</v>
+        <v>4.637874776291856</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>67.42405886984542</v>
+        <v>37.77484886205242</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>71.4631303922216</v>
+        <v>42.74794297358315</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>62.67935052858794</v>
+        <v>6.375319137556797</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>80.57421393743141</v>
+        <v>59.45870342313722</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>85.05467361266855</v>
+        <v>72.11050712750833</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>77.66439440283814</v>
+        <v>68.25377223272372</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>84.81844671269089</v>
+        <v>74.36566316271566</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>88.20482651319405</v>
+        <v>81.72365557087525</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>57.26853224055821</v>
+        <v>22.38224252629536</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>77.96978456048444</v>
+        <v>66.40095753477441</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>83.01794493604915</v>
+        <v>69.80185540370813</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>76.74401872142003</v>
+        <v>53.69496909713126</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>69.133036948696</v>
+        <v>38.69040834779014</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>75.83141901706387</v>
+        <v>44.9401665275707</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>78.95407189935918</v>
+        <v>48.05771496009302</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>50.42092956651103</v>
+        <v>16.59777901082695</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>69.84295866327258</v>
+        <v>48.78091485212821</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>74.71222453855658</v>
+        <v>53.04188168068378</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>52.39494732074125</v>
+        <v>13.61942705234299</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>67.22269359893957</v>
+        <v>36.56053724640925</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>71.09559117680658</v>
+        <v>45.17878924910084</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>49.74038817391882</v>
+        <v>7.472900624982536</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>66.58531667672329</v>
+        <v>39.50297015594887</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>70.6396251900516</v>
+        <v>47.4808686608764</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>61.81191418220882</v>
+        <v>7.161780793722777</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>79.6838551027478</v>
+        <v>57.22975063732748</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>84.17852448976596</v>
+        <v>73.61568250600868</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>76.82684417241695</v>
+        <v>62.21658541846165</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>83.98692829227176</v>
+        <v>72.11413074832274</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>87.38124222005051</v>
+        <v>82.23152549668191</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>56.47593572599366</v>
+        <v>20.05489427732308</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>77.13806061640183</v>
+        <v>67.59647712409441</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>82.21017147483927</v>
+        <v>77.05488558661686</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.13441027263991</v>
+        <v>13.82194918403073</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>39.49918670883395</v>
+        <v>24.78589171121921</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.28399375702584</v>
+        <v>31.65993316511667</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.77848485541569</v>
+        <v>0.01987409531254514</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>38.02801212755698</v>
+        <v>18.66927843753129</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>41.94881173532296</v>
+        <v>21.91512305155705</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>30.49769601337103</v>
+        <v>3.494608117183923</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>49.28521227038839</v>
+        <v>44.58564688338456</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>53.69828802397932</v>
+        <v>45.20317595880452</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>48.368451947045</v>
+        <v>21.6141586210661</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>55.61930855560134</v>
+        <v>30.52283490937368</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>58.7510523716245</v>
+        <v>28.84063820095704</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.81747320866276</v>
+        <v>9.525696411187898</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>48.58212966118365</v>
+        <v>14.04424667288144</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>53.9788479924944</v>
+        <v>21.19829987801322</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.92408663539792</v>
+        <v>14.54845410115806</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>40.25208725422625</v>
+        <v>30.47906375261636</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>44.03425539452827</v>
+        <v>31.23826866144847</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>20.88067764731544</v>
+        <v>2.79632745656949</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.85379571807395</v>
+        <v>17.15730605721818</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>41.88438982076524</v>
+        <v>18.65152904005891</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>30.62087026434537</v>
+        <v>2.167631186401135</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>49.28045350048994</v>
+        <v>32.19081598695561</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.62163170512955</v>
+        <v>26.11819531414087</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>41.07079162120272</v>
+        <v>43.503640285705</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>44.84764265609721</v>
+        <v>40.77297369597258</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.36772450023158</v>
+        <v>5.496948575239678</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>39.72345683350191</v>
+        <v>41.23989989064638</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>43.63530830887658</v>
+        <v>40.72710319132948</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>32.21332730716802</v>
+        <v>7.645940231067677</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>51.09596038295734</v>
+        <v>63.45839992339778</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>55.50199097004984</v>
+        <v>56.8812201186532</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>50.07466481298485</v>
+        <v>52.90572869420592</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>57.33836277121298</v>
+        <v>62.42053775846337</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>60.46988865638371</v>
+        <v>58.68841411432867</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.37962073497834</v>
+        <v>18.75933307470397</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>50.28180467694602</v>
+        <v>43.74462228809538</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>55.65801508634932</v>
+        <v>42.02033669036528</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.40462597157683</v>
+        <v>24.16283229560256</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>41.81775374765662</v>
+        <v>42.18215188105369</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.59329189868681</v>
+        <v>39.98275577919684</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.46019001975301</v>
+        <v>6.824961187409023</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>39.53992192287178</v>
+        <v>35.80673862262088</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>43.56281274875687</v>
+        <v>38.34529830475947</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.32678493078454</v>
+        <v>7.302404154704146</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>51.08220175423879</v>
+        <v>60.00841407381992</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.80564850006301</v>
+        <v>9.878678731070291</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>41.26121733038419</v>
+        <v>30.6435519099656</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>45.04034822848584</v>
+        <v>30.32156705782642</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.58783175761327</v>
+        <v>0.4149249516413249</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>39.95193296422734</v>
+        <v>35.74127521079331</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>43.86806754572045</v>
+        <v>37.53958221879108</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>32.44437700623399</v>
+        <v>4.446767592934837</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>51.33261416378317</v>
+        <v>56.86574831523909</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>55.74097551754883</v>
+        <v>54.89179065067425</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>50.29906527034296</v>
+        <v>54.82637415586797</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>57.55843491540347</v>
+        <v>61.09354633361574</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>60.69393011308401</v>
+        <v>58.48245883042475</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.58173132351823</v>
+        <v>4.106982725437728</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>50.50174581362802</v>
+        <v>29.53494434056235</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>55.8786734068799</v>
+        <v>27.06989420497905</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.58882841067841</v>
+        <v>16.57281860975942</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>42.00827990493241</v>
+        <v>35.49939125046751</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>45.78643167812869</v>
+        <v>36.2421460179758</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.67930490095448</v>
+        <v>4.996430760946403</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>39.76746929041538</v>
+        <v>31.4094566158524</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>43.79476174082079</v>
+        <v>38.58084601801256</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.55708770545043</v>
+        <v>6.159657069102501</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>51.3180450723566</v>
+        <v>50.98958085626284</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>24.98526944094935</v>
+        <v>8.367024459250647</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>40.41597860051785</v>
+        <v>29.59213876889086</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>44.21015183811875</v>
+        <v>33.8103205946293</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.71018021337723</v>
+        <v>4.533917604488582</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>39.03943752989655</v>
+        <v>36.48207365592754</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>42.97301122465738</v>
+        <v>43.66231900659214</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>31.50342566408079</v>
+        <v>5.46647208902905</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>50.36570584584132</v>
+        <v>58.93363544969485</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>54.78977370016187</v>
+        <v>59.71791272523686</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>49.38947114931864</v>
+        <v>52.96248292233832</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>56.653482297987</v>
+        <v>61.04418730682141</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>59.7973678348227</v>
+        <v>60.0963687997654</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.72437783931584</v>
+        <v>7.211774202612336</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>49.59843460272983</v>
+        <v>32.54940699541647</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>55.00301795172189</v>
+        <v>35.70133797009242</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.77058409935086</v>
+        <v>12.3490950118302</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>41.16444250311704</v>
+        <v>33.34778575307532</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>44.95688873645777</v>
+        <v>36.01248725336399</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>21.80407697817644</v>
+        <v>5.751521521595507</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>38.85652375734944</v>
+        <v>30.43129831804378</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>42.90065550325608</v>
+        <v>38.28209546848137</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>31.61835776619</v>
+        <v>5.162196477366525</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>50.35247924482982</v>
+        <v>47.08410147968295</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>53.70183967157949</v>
+        <v>33.5321113394546</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>48.14803466271232</v>
+        <v>28.28479088292487</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>55.46846197913792</v>
+        <v>45.40423110384317</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>58.86039075254707</v>
+        <v>43.80450828634281</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.49799711597914</v>
+        <v>13.16652487193759</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>49.67229064803065</v>
+        <v>26.62735772472305</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>54.93289609230504</v>
+        <v>32.38673086699986</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>30.21843519750958</v>
+        <v>19.55223227229967</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>46.29300920331397</v>
+        <v>31.80793281488101</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>50.46882868019443</v>
+        <v>37.67699910761284</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.66629444302907</v>
+        <v>2.717513720535553</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>44.80277652392807</v>
+        <v>17.96731182841248</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>49.13959834070205</v>
+        <v>21.61092263253625</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>37.85962993638869</v>
+        <v>5.44469001084525</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>57.26262004998883</v>
+        <v>37.27777892259329</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>62.15014940817544</v>
+        <v>52.40001855436559</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>56.82079113336516</v>
+        <v>35.76171825478281</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>64.68319768266011</v>
+        <v>51.3987460379514</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>68.34343963517787</v>
+        <v>55.92200706012572</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.34661195436502</v>
+        <v>14.05703589600231</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>57.94172680720934</v>
+        <v>33.58209290603219</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>63.41128002754707</v>
+        <v>42.69778270452976</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>55.49819621178545</v>
+        <v>62.17312811225055</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>49.84162255359611</v>
+        <v>57.27154676126041</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>57.1740149782114</v>
+        <v>68.55469405948813</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>60.56627134595642</v>
+        <v>66.3033570107542</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.05103421350812</v>
+        <v>23.89897863164349</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>51.36429331871612</v>
+        <v>61.26515756328688</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>56.60590058481289</v>
+        <v>60.68786700083231</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.76165525916741</v>
+        <v>30.82069869758617</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>47.920715283695</v>
+        <v>47.67739285693634</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>52.09013754514744</v>
+        <v>46.16684040995148</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.3131185100172</v>
+        <v>7.502211344528423</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>46.55561497371311</v>
+        <v>43.85742586016026</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.88524420562513</v>
+        <v>43.15828336410814</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>39.63997843584499</v>
+        <v>9.231828591806632</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>59.13856568585135</v>
+        <v>69.49097027484081</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>64.02030102847702</v>
+        <v>73.01359248057891</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>58.58940824091899</v>
+        <v>75.17216643622976</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>66.4627125265588</v>
+        <v>82.94621032608238</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>70.12417756427433</v>
+        <v>85.8708586267349</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>36.97324999192892</v>
+        <v>30.57909696118523</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>59.70509354831179</v>
+        <v>76.85548814862207</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>65.15715635993098</v>
+        <v>75.57227369237818</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>55.73681955385133</v>
+        <v>63.98976266660369</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>50.06335888683079</v>
+        <v>53.65203216508868</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>57.39134931086618</v>
+        <v>60.67503473078002</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>60.78763470317286</v>
+        <v>65.82578785190054</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>30.25224289801326</v>
+        <v>18.27192667232201</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>51.58300866778922</v>
+        <v>55.87603167654931</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>56.82573202827876</v>
+        <v>56.97987814756776</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.96108101132725</v>
+        <v>20.10545825249356</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>48.12605433544181</v>
+        <v>39.63309963091816</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>52.29790173539295</v>
+        <v>41.33473042185308</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.54787141801311</v>
+        <v>3.884060209404701</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>46.79798840945705</v>
+        <v>39.38789418690617</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>51.13206428183965</v>
+        <v>42.67049970282049</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>39.88685974143375</v>
+        <v>4.72753344731575</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>59.3907519358135</v>
+        <v>61.37479836788195</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>64.27483871485944</v>
+        <v>72.38641903352013</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>58.82743969326761</v>
+        <v>72.34618066120966</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>66.69590165405396</v>
+        <v>77.97171607949474</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>70.36104372779796</v>
+        <v>86.86281641137954</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>37.19059542389166</v>
+        <v>22.27184848802576</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>59.93889885546884</v>
+        <v>69.96305283334131</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>65.39236289139753</v>
+        <v>70.57133885861009</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>54.78606129620285</v>
+        <v>58.71805538709581</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>49.15652695234922</v>
+        <v>40.8067252730222</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>56.48986014273492</v>
+        <v>48.94537532055202</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>59.894716412996</v>
+        <v>51.38918896585129</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.39812336555983</v>
+        <v>16.03210355299916</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>50.68254516146743</v>
+        <v>52.20783551164508</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>55.95164827741677</v>
+        <v>56.37781764147198</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.12227621496533</v>
+        <v>17.22376653258508</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>47.2635924445423</v>
+        <v>41.34299753758817</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>51.45034849857933</v>
+        <v>46.67996486071294</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.64964207214918</v>
+        <v>6.814643725044782</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>45.86668433290196</v>
+        <v>41.0970970151419</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>50.21797965848678</v>
+        <v>48.54452492014698</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>38.92390322874729</v>
+        <v>6.146181519166142</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>58.40265709475253</v>
+        <v>60.11186240388665</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>63.30263632922082</v>
+        <v>74.57811937977036</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>57.89829924634346</v>
+        <v>65.98402242686417</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>65.77364572947006</v>
+        <v>74.59116297737322</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>69.44732790883516</v>
+        <v>86.33673131377607</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.31074269461067</v>
+        <v>19.21423187354335</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>59.01653532036192</v>
+        <v>71.98297638427286</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>64.4962227374635</v>
+        <v>78.21591263905131</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>3.328333111803488</v>
+        <v>13.09604300843074</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.53556865360887</v>
+        <v>16.94532953712852</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.57466572772196</v>
+        <v>24.9433683647828</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-0.388549194824197</v>
+        <v>1.613847318900966</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.69213310471848</v>
+        <v>11.44980922375093</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.87896624926235</v>
+        <v>14.18052570473475</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.20411338757094</v>
+        <v>6.477628095933714</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.86204932259253</v>
+        <v>29.01259544472102</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.52565246688289</v>
+        <v>31.82702687567195</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.41040304344392</v>
+        <v>13.21346318665748</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>35.64814863039765</v>
+        <v>17.21066805452174</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>38.8837529769472</v>
+        <v>18.92459156507486</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.55503870830905</v>
+        <v>12.42071508644772</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.35857537430055</v>
+        <v>16.16848599171106</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>35.09886577584935</v>
+        <v>27.91896290843083</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>4.47473970864546</v>
+        <v>7.76015996280076</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.6702272037664</v>
+        <v>18.68355628369185</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.71035564703668</v>
+        <v>21.50429143286898</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.06836953624819131</v>
+        <v>-1.386996034070496</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.88637090725074</v>
+        <v>4.226448792141031</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.19632221581816</v>
+        <v>6.91388638486756</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.702395678589573</v>
+        <v>-0.4061276019060358</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.25862651071603</v>
+        <v>14.88446125299791</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.806113369904329</v>
+        <v>15.86771667541617</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.0983233325215</v>
+        <v>24.74874387320315</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.12991240209519</v>
+        <v>24.88465702232568</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>1.19321276094499</v>
+        <v>0.4672038890849599</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.38042106249572</v>
+        <v>24.58021727198106</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.55884464433914</v>
+        <v>24.71024107938632</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.912807234218436</v>
+        <v>4.818766065670118</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.6666530227486</v>
+        <v>39.47493903064311</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.32362348062493</v>
+        <v>36.85337180935026</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>30.1133444837517</v>
+        <v>38.13494045100995</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>37.3643367285912</v>
+        <v>42.60628407595033</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.59891625505451</v>
+        <v>42.96921235661775</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>10.11351545404678</v>
+        <v>18.34396055379127</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>31.05632973448019</v>
+        <v>41.82758818137415</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.77623919069352</v>
+        <v>45.20660159740819</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>5.947260738613894</v>
+        <v>12.0534821615254</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>21.22852261928935</v>
+        <v>24.42167135995</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.26253060730937</v>
+        <v>25.37281826996086</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>1.642011029961379</v>
+        <v>-0.534043415431352</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>18.56700920257266</v>
+        <v>18.228072461631</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.86990895181592</v>
+        <v>23.25032429232587</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.40296814563242</v>
+        <v>1.749220224226757</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.05588578466835</v>
+        <v>38.09964561210992</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>5.002504390421501</v>
+        <v>5.022399882329918</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.30137317488772</v>
+        <v>16.62508698639764</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.33536559514607</v>
+        <v>19.79870574963219</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>1.426556460133078</v>
+        <v>-1.368800065117568</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.62230026098499</v>
+        <v>22.34859526482895</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.80514740920874</v>
+        <v>25.24573834172489</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>10.15792007115225</v>
+        <v>5.353331296572044</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.91764140872771</v>
+        <v>36.42174206333114</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.57708440200786</v>
+        <v>39.44073467940525</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.35076058443448</v>
+        <v>41.19957531309637</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>37.59746567847266</v>
+        <v>42.81636152503852</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>40.83610235790456</v>
+        <v>45.80498676836602</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>10.32779101536931</v>
+        <v>5.356814733847767</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.28880064976607</v>
+        <v>30.51683761597153</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>37.00968372620375</v>
+        <v>34.87128072335592</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>6.143747115165125</v>
+        <v>6.490650743899479</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.43154589212691</v>
+        <v>19.26763212931668</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.46832533230656</v>
+        <v>23.84532087835023</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>1.874282808037586</v>
+        <v>-1.769042087044255</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.80785299178616</v>
+        <v>14.68309119204407</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.11533510172964</v>
+        <v>24.75955986309664</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>10.64724703107851</v>
+        <v>1.409940843764456</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.30593781126196</v>
+        <v>29.48527369112252</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.152631716521377</v>
+        <v>1.604386292435866</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.42602403365288</v>
+        <v>13.14704041503928</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>23.4753166237922</v>
+        <v>20.93844143614493</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>0.5178836639098829</v>
+        <v>-1.546112104128678</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.67830068230609</v>
+        <v>18.9423794092707</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.87882683142321</v>
+        <v>27.65916059301533</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>9.183705031516505</v>
+        <v>0.7698140269968832</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.91678339663213</v>
+        <v>33.52429240703273</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.59220325534523</v>
+        <v>39.95449108734282</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.40952357271104</v>
+        <v>33.36286748747452</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.66062974435065</v>
+        <v>37.43353046131633</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>39.90836838292962</v>
+        <v>41.85223864669526</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>9.440181959604109</v>
+        <v>2.658915061996776</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>30.35425623251342</v>
+        <v>26.25630895541179</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.10345747320681</v>
+        <v>37.59564924361206</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.295800920328913</v>
+        <v>3.060238568511689</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.55739128725654</v>
+        <v>17.3402656055219</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.60868559009702</v>
+        <v>24.3067222681889</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>0.9676913457626561</v>
+        <v>-1.809226433268321</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.86503770637818</v>
+        <v>12.75125877772934</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.18954657162233</v>
+        <v>23.92853913394359</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>9.674957864466409</v>
+        <v>-0.5808442731153356</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.30612877870091</v>
+        <v>25.02612037435703</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.93769000274904</v>
+        <v>17.02362109450122</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.50455090356522</v>
+        <v>12.68978666262174</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.81911438702708</v>
+        <v>25.29330084221972</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>39.32942338172931</v>
+        <v>24.35845785639535</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>9.487997142787409</v>
+        <v>2.325625808490152</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.76750955382689</v>
+        <v>11.26103657595921</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.34765180440128</v>
+        <v>16.88364488368509</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.48546016072947</v>
+        <v>14.26238320871092</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.47288382232412</v>
+        <v>23.04695617025573</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.90465345265324</v>
+        <v>31.09211625758296</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>7.667365073671052</v>
+        <v>-1.774294136508431</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.70458632315021</v>
+        <v>7.080845402256749</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.31724413640445</v>
+        <v>11.56303966088171</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.88240887491742</v>
+        <v>3.220459759759521</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.23490665650879</v>
+        <v>24.4357049520648</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>42.37055663007051</v>
+        <v>36.83134625364546</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>39.08935701368637</v>
+        <v>24.57707079390105</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>46.94242316671412</v>
+        <v>35.26236957081576</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>50.71230786970639</v>
+        <v>38.82233280922191</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>18.10952046515757</v>
+        <v>6.97649335776422</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.8517042294541</v>
+        <v>18.87923155417468</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>46.64530297005747</v>
+        <v>29.23623602830844</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.73004293093246</v>
+        <v>41.87203988996457</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.19635725568281</v>
+        <v>37.97167018764953</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>37.52326984349828</v>
+        <v>45.42168643002595</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.03309235680914</v>
+        <v>43.49031495040803</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>11.03860440253662</v>
+        <v>11.20388767730083</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>32.45899082180814</v>
+        <v>43.0867040952818</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.02033093887631</v>
+        <v>44.15604937419317</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.02754102036655</v>
+        <v>23.49044597285215</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.10017523039183</v>
+        <v>36.66661219693406</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.52606845606956</v>
+        <v>38.85418944077431</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>9.31504253732894</v>
+        <v>4.379357117684254</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>27.45881365536658</v>
+        <v>33.44699407532322</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.0649015346856</v>
+        <v>35.18344654771384</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.66478937448428</v>
+        <v>9.494302881992407</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.11382718116688</v>
+        <v>57.69149327819115</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>44.24415598069382</v>
+        <v>60.27039768838493</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.86312995600604</v>
+        <v>67.59585370028077</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>48.72747945130649</v>
+        <v>70.93360642530325</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.49783971445779</v>
+        <v>72.52664047032809</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>19.7403974416718</v>
+        <v>28.43141968221882</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>42.62124080652091</v>
+        <v>65.28697139518957</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>48.39756960043147</v>
+        <v>68.41376593991046</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.98305055143776</v>
+        <v>45.38878865359292</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.43099303601515</v>
+        <v>32.80152784149178</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>37.75354553257333</v>
+        <v>37.50297410345077</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.2674905645556</v>
+        <v>44.26271029422321</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>11.25193551388544</v>
+        <v>5.36842318995761</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>32.69014367431152</v>
+        <v>38.46844672152987</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.25290819239873</v>
+        <v>42.73369214214129</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>13.23955536746472</v>
+        <v>16.06588933734952</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.31834951122274</v>
+        <v>31.81344481312978</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.74679895471152</v>
+        <v>37.60634212702143</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.563153193187661</v>
+        <v>2.872261951068243</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>27.71473942501952</v>
+        <v>31.85215694948818</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>32.32541176875647</v>
+        <v>37.55222745658001</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>19.92589351157809</v>
+        <v>7.389219426521045</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.38050321733697</v>
+        <v>52.25665840277713</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.51333263800292</v>
+        <v>63.29211433458214</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>41.11428607030606</v>
+        <v>64.69464765323477</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>48.97387649219178</v>
+        <v>67.7451530265629</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>52.74797123905636</v>
+        <v>76.39541387627143</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>19.9700296959007</v>
+        <v>21.01958425729849</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>42.86772547205102</v>
+        <v>60.90947750663577</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>48.64571645895711</v>
+        <v>67.48793380591611</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.99828051790625</v>
+        <v>40.87364396635668</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.49216203755827</v>
+        <v>18.97655420623979</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.81984914742969</v>
+        <v>24.8142986940439</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.34310341534341</v>
+        <v>29.62419121022383</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>10.36727784948194</v>
+        <v>1.656616186823847</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.75818177945206</v>
+        <v>32.76748094762321</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.34787997527235</v>
+        <v>40.53260493847583</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>12.369968984706</v>
+        <v>11.29094577936914</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.42452593089612</v>
+        <v>30.94403443506907</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>32.86811340004453</v>
+        <v>40.56515465000684</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>8.632719560200441</v>
+        <v>1.583558124880433</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.75073362276054</v>
+        <v>28.6274405579496</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.37884734463209</v>
+        <v>38.95652923293456</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>18.92836838278066</v>
+        <v>3.87498054585582</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.35719771554933</v>
+        <v>46.84457798096091</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.50616014151383</v>
+        <v>62.10540159247274</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.15234130303344</v>
+        <v>51.43159308417616</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.0186037048677</v>
+        <v>58.507865678214</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>51.80192970989663</v>
+        <v>70.45593274534755</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>19.05871702742769</v>
+        <v>10.98088824425578</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>41.9129947674158</v>
+        <v>55.93805157098001</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>47.71781339379003</v>
+        <v>68.01801036716749</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1.593441584346211</v>
+        <v>13.10196286386898</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>18.71842707762736</v>
+        <v>15.87936212304748</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>23.30183817816548</v>
+        <v>28.72412918016087</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-3.100542163865502</v>
+        <v>3.782847112470971</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>16.31489914370891</v>
+        <v>16.77017861881646</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.16394363202376</v>
+        <v>19.22340335564711</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>6.642401352194911</v>
+        <v>8.437477050371157</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.5835267606824</v>
+        <v>37.4932758632536</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.84503227371012</v>
+        <v>40.17403666378285</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.92094847453915</v>
+        <v>15.98950613175199</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>38.01662130027366</v>
+        <v>22.71617169949237</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>41.8720391695806</v>
+        <v>27.59045142496029</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>8.010129504222272</v>
+        <v>17.18294343754739</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.10005010277636</v>
+        <v>14.65004287740857</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>37.51518155226211</v>
+        <v>28.5948269493841</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>3.965056036961871</v>
+        <v>10.56664562132429</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>21.11471903167772</v>
+        <v>27.5564672377084</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.7075904868342</v>
+        <v>37.65314803854531</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-1.454850179669156</v>
+        <v>-0.6393696714085912</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>17.7210834829532</v>
+        <v>10.70720221431211</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.71460796399965</v>
+        <v>16.72830091031101</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>8.400552297300321</v>
+        <v>-1.690228334013256</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.26778589075674</v>
+        <v>22.61446553263551</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>3.243242651898248</v>
+        <v>18.89282251952928</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.46249375286194</v>
+        <v>29.81827424364645</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.03851593114747</v>
+        <v>32.07824704903267</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-1.337996074709764</v>
+        <v>3.071073432789611</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>18.19572559668425</v>
+        <v>34.95549070800207</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>23.03686716664224</v>
+        <v>35.69022805978368</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>8.548130397080856</v>
+        <v>5.722141696258969</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.59588864237858</v>
+        <v>53.57176234682498</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>34.85108748816717</v>
+        <v>48.70964046029872</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.82008064890889</v>
+        <v>50.47342780356298</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.93046664371393</v>
+        <v>58.70352859302305</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.78552152850867</v>
+        <v>59.43342203677976</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>9.74868283953557</v>
+        <v>23.16088909071646</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>32.99210367223947</v>
+        <v>47.37501840376064</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>39.38499442640253</v>
+        <v>50.34615133287542</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>5.608731631866659</v>
+        <v>21.14286591309504</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>22.85358828291801</v>
+        <v>41.0968156689715</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>27.44048385195666</v>
+        <v>47.7324367305161</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>0.2985380713524393</v>
+        <v>5.587130673985488</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>19.59333923671892</v>
+        <v>32.67486979371243</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>24.58032402186757</v>
+        <v>44.09804005240441</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>10.29692554802744</v>
+        <v>6.595311489129003</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.27167878056252</v>
+        <v>58.91488587833327</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>3.465139215276167</v>
+        <v>5.149560724505726</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.69159454724154</v>
+        <v>21.50615612805607</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.27042273969509</v>
+        <v>27.78598608354066</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-1.075105774720747</v>
+        <v>-0.7416842704898734</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>18.46772487487793</v>
+        <v>32.69809725568486</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>23.31390344394837</v>
+        <v>37.01914635592573</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>8.824557371231579</v>
+        <v>3.56353846098893</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.87873625510559</v>
+        <v>50.09495064143103</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.13685830920531</v>
+        <v>52.86597491700123</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.08717556823918</v>
+        <v>53.03824473418506</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.19250065907244</v>
+        <v>58.09208712921394</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.05220362772041</v>
+        <v>61.40088932390906</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>9.989752079780716</v>
+        <v>7.948683738559041</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>33.25308719309638</v>
+        <v>36.2826862120227</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.6474742522381</v>
+        <v>42.10148921430974</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>5.829981825242696</v>
+        <v>12.25822678622604</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>23.08190520331422</v>
+        <v>35.0786494382485</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.67197393610216</v>
+        <v>45.14455444190912</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>0.5594506512567374</v>
+        <v>0.9860434174725974</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>19.86337690028747</v>
+        <v>27.5032065626384</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.85553557684884</v>
+        <v>44.9068271138228</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>10.57155045955104</v>
+        <v>2.380873932692012</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.5526137181284</v>
+        <v>48.23290521406658</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2.510495498847726</v>
+        <v>2.264136319602496</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>19.70920871191615</v>
+        <v>16.7452483657925</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.30457142002871</v>
+        <v>28.49146668862651</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-2.094431595320211</v>
+        <v>0.693790253161886</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>17.41004302104199</v>
+        <v>30.77227646089662</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.27517185504794</v>
+        <v>37.92338223899077</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>7.73163309221683</v>
+        <v>1.525790567294717</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.75662863920407</v>
+        <v>46.47554989011515</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.03193371026757</v>
+        <v>53.95186399092131</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.03232269495208</v>
+        <v>42.95468397594683</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>39.14248802199175</v>
+        <v>49.64088087507167</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.01240113729587</v>
+        <v>52.42335302885208</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>8.994503929823003</v>
+        <v>6.447115489014745</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>32.20624945586449</v>
+        <v>27.09966229260279</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>38.63198361787063</v>
+        <v>42.59218198181981</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>4.87984552876174</v>
+        <v>8.266960542732548</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>22.10328134238908</v>
+        <v>32.2846867409523</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.70910412434453</v>
+        <v>45.53048433127542</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-0.4552307411327305</v>
+        <v>2.310184788824586</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>18.80942389217002</v>
+        <v>27.47545256395517</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.81991033232101</v>
+        <v>42.59332015431349</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>9.483370254961246</v>
+        <v>1.472472737011799</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.43435911533196</v>
+        <v>43.36101596830675</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.55727313227147</v>
+        <v>34.2194834919559</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.1690156440328</v>
+        <v>23.73041732371663</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.37574753619082</v>
+        <v>46.7795208430126</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>43.53546435292417</v>
+        <v>54.19615675420368</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>10.13707995523348</v>
+        <v>4.46681090516098</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.84087261722568</v>
+        <v>22.67481766690689</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.06715058183485</v>
+        <v>34.59327205787464</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.66559251375482</v>
+        <v>11.14990531719372</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.57181582829545</v>
+        <v>25.92321236588224</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.63687586078976</v>
+        <v>37.06184623106132</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>6.925415513717914</v>
+        <v>-2.218535005723254</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.2802994123821</v>
+        <v>9.483169790628729</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.65242149926456</v>
+        <v>15.29318955537725</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.52681487469606</v>
+        <v>0.1707264747382524</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>40.1626162738709</v>
+        <v>28.29084318166345</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>45.98949824041775</v>
+        <v>41.79284273087946</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>42.81237831004668</v>
+        <v>29.26696434307048</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>51.56137335324915</v>
+        <v>52.36015802773834</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>56.08644758409353</v>
+        <v>57.37302470727283</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>19.66045326383494</v>
+        <v>3.704954877743688</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.83190259209805</v>
+        <v>24.67721497666155</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>51.35244438504521</v>
+        <v>35.02272410546691</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.55665183235084</v>
+        <v>71.16327630970606</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>33.05535795790081</v>
+        <v>62.92821271971088</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.27575716543092</v>
+        <v>77.87623266527936</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>45.4357608296074</v>
+        <v>84.62273412180548</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>11.8667230778056</v>
+        <v>23.42117397563862</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>35.72579236633582</v>
+        <v>75.76838937641733</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>41.93158700213188</v>
+        <v>79.72990100355194</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>13.38510424839417</v>
+        <v>26.12138522253393</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>31.38570450858376</v>
+        <v>47.83024216283039</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.44532601975962</v>
+        <v>52.96481083215087</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>8.759701876460879</v>
+        <v>6.660763364603113</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.23265980283445</v>
+        <v>42.74943148848198</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.59910982897749</v>
+        <v>49.50122784215244</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>20.51280419682874</v>
+        <v>10.51527410184707</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>42.25579024545854</v>
+        <v>75.91286577788949</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>48.07796772977321</v>
+        <v>79.31652272522011</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.78877570138835</v>
+        <v>87.12080001417951</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>53.55036277541365</v>
+        <v>97.69410261407383</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>58.07697603748409</v>
+        <v>99.13730019492162</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>21.47815020838406</v>
+        <v>33.35736089166582</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>46.80251891590368</v>
+        <v>91.34964917050144</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>53.30433176993693</v>
+        <v>92.4931200338999</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>36.84100109025599</v>
+        <v>74.29874977600024</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>33.31853613599456</v>
+        <v>52.59303848819383</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>41.53382064598816</v>
+        <v>63.93574337503952</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>45.6984864045884</v>
+        <v>81.61111066429548</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.10601003393741</v>
+        <v>13.7981802728063</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>35.98454059360851</v>
+        <v>67.92836599172503</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>42.19227184032782</v>
+        <v>76.97416817083931</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>13.62382140499113</v>
+        <v>14.38129799836033</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>31.63117449369601</v>
+        <v>41.31877593201286</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.6937549045162</v>
+        <v>50.29217159312068</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>9.038551726179255</v>
+        <v>2.365170540648663</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.51995549447139</v>
+        <v>40.25931443605402</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.89161585191479</v>
+        <v>51.99489880178245</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.80650329122927</v>
+        <v>4.373786923245383</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.5556794483937</v>
+        <v>68.8861262338323</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>48.38079230263107</v>
+        <v>82.24756017004287</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>45.07073235152233</v>
+        <v>81.2539004510577</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>53.82680328689614</v>
+        <v>91.0625403171302</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>58.35771491715972</v>
+        <v>99.65882995026216</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>21.73584142054725</v>
+        <v>19.98868613401069</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>47.07873477014439</v>
+        <v>82.81541853487938</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>53.58278212535337</v>
+        <v>89.4041126917933</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>35.73897378885827</v>
+        <v>69.86072230740498</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>32.2690040476158</v>
+        <v>36.91224556314117</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>40.49000262321915</v>
+        <v>50.12303925871959</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.66506335750377</v>
+        <v>64.46152214975612</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>11.11640587189208</v>
+        <v>10.48911912078146</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>34.94313082268307</v>
+        <v>58.38119319704242</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>41.18064961807872</v>
+        <v>70.78912142410968</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.65032958779099</v>
+        <v>12.24593743973738</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.63125091892535</v>
+        <v>42.09871393230839</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>35.71017777379291</v>
+        <v>55.55094559158693</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>7.998034271026244</v>
+        <v>5.551447382105714</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.44295021528553</v>
+        <v>40.97687645165983</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>33.83326287802011</v>
+        <v>54.64028078737085</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.6908764222084</v>
+        <v>4.627752230514709</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>41.41177311014688</v>
+        <v>63.05465720913291</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>47.25421933576958</v>
+        <v>82.2573592362962</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>43.99576728492116</v>
+        <v>68.59771959312027</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.75910270379089</v>
+        <v>84.90643026334304</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.30039697360738</v>
+        <v>100.0387634019121</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>20.71712646217566</v>
+        <v>15.89141119390798</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>46.01208938272061</v>
+        <v>77.83917171848195</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>52.5458461316333</v>
+        <v>90.6685300050208</v>
       </c>
     </row>
   </sheetData>
